--- a/threshold_ac/pareto_coefficients_pvalues_SE_country_byyear.xlsx
+++ b/threshold_ac/pareto_coefficients_pvalues_SE_country_byyear.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>(0.8926290275647413, 3.2175436410750843e-87, 0.03203894256090352)</t>
-  </si>
-  <si>
-    <t>(0.8906077471768568, 6.197903741510752e-87, 0.03205959721593901)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,23 +849,6 @@
         <v>0.03203894256090352</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>2022</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>0.8906077471768568</v>
-      </c>
-      <c r="D24">
-        <v>6.197903741510752E-87</v>
-      </c>
-      <c r="E24">
-        <v>0.03205959721593901</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
